--- a/data/trans_camb/P31_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_1_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +547,27 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +657,15 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
         </is>
       </c>
     </row>
@@ -639,32 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 4,3</t>
+          <t>-5,76; 5,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 8,72</t>
+          <t>-2,71; 10,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 13,69</t>
+          <t>-12,24; -0,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 7,37</t>
+          <t>-5,49; 5,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 8,06</t>
+          <t>-8,43; 1,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 6,49</t>
+          <t>2,69; 12,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 7,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 8,68</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 4,81</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 4,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 8,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 7,06</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 3,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,99; 3,28</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 1,59</t>
         </is>
       </c>
     </row>
@@ -677,32 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>-18,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>-11,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-1,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-2,69%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-6,12%</t>
         </is>
       </c>
     </row>
@@ -715,32 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 14,48</t>
+          <t>-16,42; 20,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 29,69</t>
+          <t>-8,08; 35,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,29; 47,73</t>
+          <t>-35,04; -1,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 25,14</t>
+          <t>-18,99; 23,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 26,44</t>
+          <t>-27,13; 6,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 21,51</t>
+          <t>7,44; 41,85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 25,3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 29,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-15,4; 14,46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-13,93; 12,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 26,89</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 23,45</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-13,9; 10,97</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 11,23</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-14,99; 5,27</t>
         </is>
       </c>
     </row>
@@ -757,32 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,26</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
         </is>
       </c>
     </row>
@@ -795,32 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 7,93</t>
+          <t>-6,79; 7,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 8,47</t>
+          <t>-5,56; 9,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 9,82</t>
+          <t>-11,24; 2,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 6,45</t>
+          <t>-3,92; 11,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 7,15</t>
+          <t>-10,13; 7,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,0</t>
+          <t>-1,1; 10,37</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 6,58</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 12,58</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-12,98; 4,22</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-10,61; 8,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 6,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 5,63</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 6,36</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 5,97</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,07; 5,83</t>
         </is>
       </c>
     </row>
@@ -833,32 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>-13,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>-4,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,9%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-2,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 28,85</t>
+          <t>-18,65; 27,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 31,13</t>
+          <t>-15,57; 34,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 29,03</t>
+          <t>-32,99; 9,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 19,13</t>
+          <t>-13,04; 49,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 22,35</t>
+          <t>-26,91; 27,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 15,65</t>
+          <t>-2,77; 30,12</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-13,7; 19,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 38,22</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-27,7; 10,9</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-23,77; 24,63</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 21,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-10,39; 17,57</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-10,48; 20,81</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-14,94; 18,33</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-20,48; 18,11</t>
         </is>
       </c>
     </row>
@@ -913,32 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,73</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>12,73</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,34</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,42</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -951,32 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 18,26</t>
+          <t>-9,51; 18,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 11,68</t>
+          <t>-15,23; 13,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 26,58</t>
+          <t>-23,11; 8,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 23,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 17,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 13,58</t>
+          <t>1,22; 23,11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 21,05</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,04; 12,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 16,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 13,56</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-13,31; 6,26</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>-18,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23,96%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-8,39%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 69,59</t>
+          <t>-23,63; 72,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 44,88</t>
+          <t>-35,83; 53,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 95,16</t>
+          <t>-55,35; 30,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 83,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 61,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 47,1</t>
+          <t>3,99; 77,97</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 70,31</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-29,4; 41,8</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 55,12</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; 45,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-33,71; 19,67</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,47</t>
+          <t>-3,82; 5,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 5,51</t>
+          <t>-2,15; 6,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,7</t>
+          <t>-9,79; -0,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,77</t>
+          <t>-3,75; 4,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,92</t>
+          <t>-7,01; 1,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,89</t>
+          <t>3,23; 10,89</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 6,67</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 7,99</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 1,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 3,64</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 6,97</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 5,64</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 2,25</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 2,24</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 1,31</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>-16,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20,77%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
           <t>7,9%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>11,78%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-6,74%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,19%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-1,31%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-5,41%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1937,84 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 14,74</t>
+          <t>-11,19; 17,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 18,23</t>
+          <t>-6,22; 22,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,46; 36,52</t>
+          <t>-28,27; -2,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 21,09</t>
+          <t>-13,21; 19,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,19; 21,44</t>
+          <t>-21,61; 4,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 15,47</t>
+          <t>8,8; 33,62</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 20,28</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 24,66</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-17,57; 3,83</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; 10,51</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 22,18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 17,63</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 7,02</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 7,05</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; 4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1216,12 +2022,12 @@
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
